--- a/files/rice_recommendations_v4.xlsx
+++ b/files/rice_recommendations_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\DA\ACAP 2.0\acap-v2\server\src\scripts\data\dataset_v2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE75BB-39F1-4DDD-9893-C0A8BF0D88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591DD530-C39D-3E4A-8A05-F7A9A96A08E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E2D1DC89-D079-3B4D-864B-8CE149E3E279}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{E2D1DC89-D079-3B4D-864B-8CE149E3E279}"/>
   </bookViews>
   <sheets>
     <sheet name="Rice_10Day" sheetId="9" r:id="rId1"/>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -668,7 +669,7 @@
     <t>Hi {{Ka-AMIA}}! Signal No. 5 sa {{municipality_identifier}} dahil sa {{special_weather_name_identifier}}. Ipagpaliban muna ang mga gawaing pangsakahan.</t>
   </si>
   <si>
-    <t>Vegetative (Panicle Initiation)</t>
+    <t>Reproductive (Panicle Initiation)</t>
   </si>
 </sst>
 </file>
@@ -854,9 +855,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -894,7 +895,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1000,7 +1001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1142,7 +1143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1152,20 +1153,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C6FC8D-17C2-E74D-82B5-1309CBE763F5}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A29" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="8" customWidth="1"/>
-    <col min="4" max="7" width="32.796875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.69921875" customWidth="1"/>
+    <col min="4" max="7" width="32.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1186,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1203,8 +1204,8 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1226,8 +1227,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="207" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1249,8 +1250,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1272,7 +1273,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="109.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="138" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="150" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="138" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="150" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="121.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="165" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="118.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>209</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>209</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>209</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>209</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>209</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>209</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="220.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="221" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>209</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>209</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>209</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>19</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>19</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="180" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>19</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="195" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>19</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>20</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>20</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>20</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="143" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="312" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>20</v>
       </c>
@@ -2324,14 +2325,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.296875" customWidth="1"/>
-    <col min="2" max="2" width="89.296875" customWidth="1"/>
-    <col min="3" max="3" width="84.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="89.33203125" customWidth="1"/>
+    <col min="3" max="3" width="84.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -2340,14 +2341,14 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2357,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2365,7 +2366,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -2374,7 +2375,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2383,98 +2384,98 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="C29" s="7"/>
     </row>
@@ -2487,22 +2488,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B020F0C-4030-5B4A-A41A-388920D315A9}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="75" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.69921875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
-    <col min="4" max="6" width="32.796875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="52.296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="22.69921875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" style="16"/>
+    <col min="4" max="6" width="32.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="52.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2524,7 @@
       <c r="H1" s="14"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2541,7 +2542,7 @@
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="143" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="143" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="143" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="143" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="143" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="78" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="117" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="117" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>15</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>15</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>15</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>18</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>18</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="143" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>18</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="143" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="143" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>18</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="117" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>18</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>18</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>18</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>18</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>18</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>209</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>209</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>209</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>209</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="260" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>209</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>209</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>209</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>209</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="117" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>209</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>209</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>209</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>209</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>209</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="100.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>209</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="156" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>209</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="104" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="104" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>19</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="104" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>19</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>19</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>19</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="117" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>19</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="117" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>19</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="117" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>19</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="130" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>19</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>19</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>20</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>20</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>20</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="91" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>20</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="118.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>20</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="180" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="195" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>20</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="180" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="195" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>20</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="180" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="195" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>20</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="143" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>20</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="205.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="206" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>20</v>
       </c>
@@ -4398,14 +4399,14 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="62.296875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -4413,12 +4414,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="40" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="40" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="36.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="53" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="40" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4474,123 +4475,123 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="18"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="18"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="18"/>
     </row>
@@ -4607,16 +4608,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="20" customWidth="1"/>
     <col min="2" max="2" width="38" style="20" customWidth="1"/>
     <col min="3" max="3" width="41" style="20" customWidth="1"/>
     <col min="4" max="4" width="49" style="5" customWidth="1"/>
     <col min="5" max="5" width="51.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>203</v>
       </c>
@@ -4629,7 +4630,7 @@
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
@@ -4644,7 +4645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>196</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>198</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>199</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>200</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>201</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="207" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>202</v>
       </c>
@@ -4746,70 +4747,70 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4829,16 +4830,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51686372-B2DE-1B43-8972-F1AC9C8B5F60}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="191" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="71.69921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>203</v>
       </c>
@@ -4847,12 +4848,12 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>196</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>198</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>199</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>200</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>201</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>202</v>
       </c>
@@ -4900,39 +4901,39 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
     </row>
